--- a/teaching/traditional_assets/database/data/poland/poland_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0613</v>
+        <v>0.044</v>
       </c>
       <c r="E2">
-        <v>0.02655</v>
+        <v>-0.0885</v>
       </c>
       <c r="F2">
-        <v>0.09365</v>
+        <v>0.015425</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006587445392984795</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005214888059818077</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2761.3</v>
+        <v>2008.2</v>
       </c>
       <c r="L2">
-        <v>0.2249256709974341</v>
+        <v>0.1588200403337419</v>
       </c>
       <c r="M2">
-        <v>1585.1</v>
+        <v>128.4075</v>
       </c>
       <c r="N2">
-        <v>0.03481196138202455</v>
+        <v>0.003936224020599594</v>
       </c>
       <c r="O2">
-        <v>0.5740412124723862</v>
+        <v>0.06394158948311919</v>
       </c>
       <c r="P2">
-        <v>1585.1</v>
+        <v>128.4075</v>
       </c>
       <c r="Q2">
-        <v>0.03481196138202455</v>
+        <v>0.003936224020599594</v>
       </c>
       <c r="R2">
-        <v>0.5740412124723862</v>
+        <v>0.06394158948311919</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>8595.6</v>
+        <v>8470.9</v>
       </c>
       <c r="V2">
-        <v>0.1887765410733267</v>
+        <v>0.2596683219912942</v>
       </c>
       <c r="W2">
-        <v>0.0668505516549649</v>
+        <v>0.04319873985546745</v>
       </c>
       <c r="X2">
-        <v>0.06262869721568927</v>
+        <v>0.06227910683420555</v>
       </c>
       <c r="Y2">
-        <v>0.004221854439275627</v>
+        <v>-0.0190803669787381</v>
       </c>
       <c r="Z2">
-        <v>0.1810239663978868</v>
+        <v>0.1819261685783458</v>
       </c>
       <c r="AA2">
-        <v>0.0008385912497626257</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04698861186898104</v>
+        <v>0.04246260474711966</v>
       </c>
       <c r="AC2">
-        <v>-0.04737551503606326</v>
+        <v>-0.04246260474711966</v>
       </c>
       <c r="AD2">
-        <v>38820.2</v>
+        <v>39651.6</v>
       </c>
       <c r="AE2">
-        <v>998.1461331651109</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>39818.34613316511</v>
+        <v>39651.6</v>
       </c>
       <c r="AG2">
-        <v>31222.74613316511</v>
+        <v>31180.7</v>
       </c>
       <c r="AH2">
-        <v>0.4665216734450329</v>
+        <v>0.5486318655774722</v>
       </c>
       <c r="AI2">
-        <v>0.4968948778467107</v>
+        <v>0.4674837772579793</v>
       </c>
       <c r="AJ2">
-        <v>0.4067795096811949</v>
+        <v>0.4887050234551202</v>
       </c>
       <c r="AK2">
-        <v>0.4364452526893026</v>
+        <v>0.4084007109523067</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>138.3964349376114</v>
-      </c>
-      <c r="AP2">
-        <v>111.311037907897</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank Millennium S.A. (WSE:MIL)</t>
+          <t>ING Bank Slaski S.A. (WSE:ING)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0765</v>
+        <v>0.0866</v>
       </c>
       <c r="E3">
-        <v>0.03240000000000001</v>
+        <v>0.0505</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,100 +728,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01424448919719043</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01046018264657697</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>186.2</v>
+        <v>381.9</v>
       </c>
       <c r="L3">
-        <v>0.2540938864628821</v>
+        <v>0.2843421934331025</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>128.1485</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02151622760623919</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.3355551191411364</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>128.1485</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02151622760623919</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.3355551191411364</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>796.2</v>
+        <v>411.3</v>
       </c>
       <c r="V3">
-        <v>0.4257071058119019</v>
+        <v>0.06905757316274619</v>
       </c>
       <c r="W3">
-        <v>0.08454797257412704</v>
+        <v>0.1002625360987136</v>
       </c>
       <c r="X3">
-        <v>0.05802143080461333</v>
+        <v>0.04303283727305227</v>
       </c>
       <c r="Y3">
-        <v>0.0265265417695137</v>
+        <v>0.0572296988256613</v>
       </c>
       <c r="Z3">
-        <v>0.2922423154828541</v>
+        <v>0.2524671516381887</v>
       </c>
       <c r="AA3">
-        <v>0.003056907997009222</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04548807516493512</v>
+        <v>0.03767898528826499</v>
       </c>
       <c r="AC3">
-        <v>-0.0424311671679259</v>
+        <v>-0.03767898528826499</v>
       </c>
       <c r="AD3">
-        <v>1288.5</v>
+        <v>1985.9</v>
       </c>
       <c r="AE3">
-        <v>98.30819158149428</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1386.808191581494</v>
+        <v>1985.9</v>
       </c>
       <c r="AG3">
-        <v>590.6081915814943</v>
+        <v>1574.6</v>
       </c>
       <c r="AH3">
-        <v>0.425778976321977</v>
+        <v>0.2500566622176333</v>
       </c>
       <c r="AI3">
-        <v>0.3838056755890805</v>
+        <v>0.2918810076721832</v>
       </c>
       <c r="AJ3">
-        <v>0.2399960281338013</v>
+        <v>0.2090963415443862</v>
       </c>
       <c r="AK3">
-        <v>0.2096505179838099</v>
+        <v>0.2463199061400078</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>42.80730897009967</v>
-      </c>
-      <c r="AP3">
-        <v>19.62153460403636</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ING Bank Slaski S.A. (WSE:ING)</t>
+          <t>Powszechna Kasa Oszczednosci Bank Polski Spólka Akcyjna (WSE:PKO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,10 +838,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0965</v>
+        <v>0.0625</v>
       </c>
       <c r="E4">
-        <v>0.0941</v>
+        <v>-0.0104</v>
+      </c>
+      <c r="F4">
+        <v>0.0307</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +853,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.005471909195195938</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.004065462894800779</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>414.8</v>
+        <v>710.2</v>
       </c>
       <c r="L4">
-        <v>0.324189136381399</v>
+        <v>0.2218127303391842</v>
       </c>
       <c r="M4">
-        <v>113.7</v>
+        <v>0.259</v>
       </c>
       <c r="N4">
-        <v>0.01637620625090019</v>
+        <v>2.69482884195193e-05</v>
       </c>
       <c r="O4">
-        <v>0.2741080038572806</v>
+        <v>0.0003646860039425514</v>
       </c>
       <c r="P4">
-        <v>113.7</v>
+        <v>0.259</v>
       </c>
       <c r="Q4">
-        <v>0.01637620625090019</v>
+        <v>2.69482884195193e-05</v>
       </c>
       <c r="R4">
-        <v>0.2741080038572806</v>
+        <v>0.0003646860039425514</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,67 +889,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>843.1</v>
+        <v>970</v>
       </c>
       <c r="V4">
-        <v>0.1214316577848192</v>
+        <v>0.1009260222661534</v>
       </c>
       <c r="W4">
-        <v>0.1256170315859605</v>
+        <v>0.06933312506711706</v>
       </c>
       <c r="X4">
-        <v>0.05044328705124848</v>
+        <v>0.06207348457880822</v>
       </c>
       <c r="Y4">
-        <v>0.07517374453471198</v>
+        <v>0.007259640488308836</v>
       </c>
       <c r="Z4">
-        <v>0.2594390884650606</v>
+        <v>0.1600843970461034</v>
       </c>
       <c r="AA4">
-        <v>0.001054739987615641</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04470765243289656</v>
+        <v>0.03985586741066899</v>
       </c>
       <c r="AC4">
-        <v>-0.04365291244528092</v>
+        <v>-0.03985586741066899</v>
       </c>
       <c r="AD4">
-        <v>2354</v>
+        <v>11711</v>
       </c>
       <c r="AE4">
-        <v>115.993460923734</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2469.993460923734</v>
+        <v>11711</v>
       </c>
       <c r="AG4">
-        <v>1626.893460923734</v>
+        <v>10741</v>
       </c>
       <c r="AH4">
-        <v>0.2624025472000427</v>
+        <v>0.5492449113591595</v>
       </c>
       <c r="AI4">
-        <v>0.3933741094484849</v>
+        <v>0.5023614548792676</v>
       </c>
       <c r="AJ4">
-        <v>0.1898382364193795</v>
+        <v>0.5277613993710691</v>
       </c>
       <c r="AK4">
-        <v>0.2992872234562287</v>
+        <v>0.4807558891589345</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>77.94701986754967</v>
-      </c>
-      <c r="AP4">
-        <v>53.87064440144815</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Santander Bank Polska S.A. (WSE:SPL)</t>
+          <t>Bank Handlowy w Warszawie S.A. (WSE:BHW)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0613</v>
+        <v>-0.0241</v>
       </c>
       <c r="E5">
-        <v>0.0207</v>
+        <v>-0.107</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -987,103 +975,94 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007083540787402601</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.005468184076706585</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>586.6</v>
+        <v>104.7</v>
       </c>
       <c r="L5">
-        <v>0.3014853266176697</v>
+        <v>0.2126320064987815</v>
       </c>
       <c r="M5">
-        <v>502.3</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.06073466821435481</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.856290487555404</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>502.3</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.06073466821435481</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.856290487555404</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>491.2</v>
+        <v>570.4</v>
       </c>
       <c r="V5">
-        <v>0.05939253240472045</v>
+        <v>0.4639284261895079</v>
       </c>
       <c r="W5">
-        <v>0.09370307657902303</v>
+        <v>0.06049924881543974</v>
       </c>
       <c r="X5">
-        <v>0.0591784431483138</v>
+        <v>0.06211293630976578</v>
       </c>
       <c r="Y5">
-        <v>0.03452463343070923</v>
+        <v>-0.001613687494326041</v>
       </c>
       <c r="Z5">
-        <v>0.1509922976008966</v>
+        <v>0.1927880662464273</v>
       </c>
       <c r="AA5">
-        <v>0.0008256536774465646</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04557780166878862</v>
+        <v>0.03985857618365789</v>
       </c>
       <c r="AC5">
-        <v>-0.04475214799134205</v>
+        <v>-0.03985857618365789</v>
       </c>
       <c r="AD5">
-        <v>6405.9</v>
+        <v>1500.4</v>
       </c>
       <c r="AE5">
-        <v>213.5877734497538</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>6619.487773449753</v>
+        <v>1500.4</v>
       </c>
       <c r="AG5">
-        <v>6128.287773449753</v>
+        <v>930.0000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.4445626370168485</v>
+        <v>0.5496172020953148</v>
       </c>
       <c r="AI5">
-        <v>0.5010061683741671</v>
+        <v>0.4330658661894591</v>
       </c>
       <c r="AJ5">
-        <v>0.4256143247129727</v>
+        <v>0.4306552442695069</v>
       </c>
       <c r="AK5">
-        <v>0.4817386459965659</v>
+        <v>0.3213323198120379</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>113.3787610619469</v>
-      </c>
-      <c r="AP5">
-        <v>108.4652703265443</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1073,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Powszechna Kasa Oszczednosci Bank Polski Spólka Akcyjna (WSE:PKO)</t>
+          <t>Bank Ochrony Srodowiska S.A. (WSE:BOS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1103,13 +1082,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0653</v>
+        <v>0.0396</v>
       </c>
       <c r="E6">
-        <v>0.0447</v>
-      </c>
-      <c r="F6">
-        <v>0.101</v>
+        <v>0.6990000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1118,103 +1094,94 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.006344650546067684</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004562269245723682</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1077.4</v>
+        <v>14.2</v>
       </c>
       <c r="L6">
-        <v>0.3316811870824739</v>
+        <v>0.1085626911314985</v>
       </c>
       <c r="M6">
-        <v>414.8</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.03654013865520309</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.3850009281603861</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>414.8</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.03654013865520309</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.3850009281603861</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>853.5</v>
+        <v>10.5</v>
       </c>
       <c r="V6">
-        <v>0.07518565174111823</v>
+        <v>0.07037533512064344</v>
       </c>
       <c r="W6">
-        <v>0.1051953250861657</v>
+        <v>0.02589823089549517</v>
       </c>
       <c r="X6">
-        <v>0.06208240916759863</v>
+        <v>0.1195334830047021</v>
       </c>
       <c r="Y6">
-        <v>0.04311291591856703</v>
+        <v>-0.09363525210920688</v>
       </c>
       <c r="Z6">
-        <v>0.2219382452708717</v>
+        <v>0.1301104148015518</v>
       </c>
       <c r="AA6">
-        <v>0.001012542030849177</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04577911012282214</v>
+        <v>0.04164743785593707</v>
       </c>
       <c r="AC6">
-        <v>-0.04476656809197296</v>
+        <v>-0.04164743785593707</v>
       </c>
       <c r="AD6">
-        <v>10610.9</v>
+        <v>580.3</v>
       </c>
       <c r="AE6">
-        <v>152.9533581560417</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>10763.85335815604</v>
+        <v>580.3</v>
       </c>
       <c r="AG6">
-        <v>9910.35335815604</v>
+        <v>569.8</v>
       </c>
       <c r="AH6">
-        <v>0.4867052541163583</v>
+        <v>0.7954763536668951</v>
       </c>
       <c r="AI6">
-        <v>0.5124508924102987</v>
+        <v>0.4971301293583483</v>
       </c>
       <c r="AJ6">
-        <v>0.4661008027333332</v>
+        <v>0.7924895688456188</v>
       </c>
       <c r="AK6">
-        <v>0.4918008007787253</v>
+        <v>0.4925656984785615</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>207.244140625</v>
-      </c>
-      <c r="AP6">
-        <v>193.5615890264852</v>
       </c>
     </row>
     <row r="7">
@@ -1234,13 +1201,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0268</v>
+        <v>0.0154</v>
       </c>
       <c r="E7">
-        <v>-0.0417</v>
+        <v>-0.0885</v>
       </c>
       <c r="F7">
-        <v>0.0863</v>
+        <v>0.00015</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1249,103 +1216,94 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005413611231016086</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.003966232005259155</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>556.5</v>
+        <v>414.9</v>
       </c>
       <c r="L7">
-        <v>0.2941331923890063</v>
+        <v>0.2328805568028738</v>
       </c>
       <c r="M7">
-        <v>432.3</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.06221755274747417</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.7768194070080863</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>432.3</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.06221755274747417</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.7768194070080863</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>750.9</v>
+        <v>1679.2</v>
       </c>
       <c r="V7">
-        <v>0.1080711551193115</v>
+        <v>0.391121049076468</v>
       </c>
       <c r="W7">
-        <v>0.09321295768985964</v>
+        <v>0.07288025435191203</v>
       </c>
       <c r="X7">
-        <v>0.05518877167556346</v>
+        <v>0.06214571915778963</v>
       </c>
       <c r="Y7">
-        <v>0.03802418601429618</v>
+        <v>0.0107345351941224</v>
       </c>
       <c r="Z7">
-        <v>0.2379159796215129</v>
+        <v>0.2021490247693827</v>
       </c>
       <c r="AA7">
-        <v>0.0009436299729374295</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04672466101093108</v>
+        <v>0.04213256835959975</v>
       </c>
       <c r="AC7">
-        <v>-0.04578103103799365</v>
+        <v>-0.04213256835959975</v>
       </c>
       <c r="AD7">
-        <v>4057.9</v>
+        <v>5245.8</v>
       </c>
       <c r="AE7">
-        <v>92.28723775458782</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>4150.187237754588</v>
+        <v>5245.8</v>
       </c>
       <c r="AG7">
-        <v>3399.287237754588</v>
+        <v>3566.6</v>
       </c>
       <c r="AH7">
-        <v>0.3739450740767492</v>
+        <v>0.5499260936566343</v>
       </c>
       <c r="AI7">
-        <v>0.4215019618803261</v>
+        <v>0.4460069547769455</v>
       </c>
       <c r="AJ7">
-        <v>0.3285133056604992</v>
+        <v>0.4537716764844337</v>
       </c>
       <c r="AK7">
-        <v>0.3737416036344765</v>
+        <v>0.3537416315397967</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>141.390243902439</v>
-      </c>
-      <c r="AP7">
-        <v>118.4420640332609</v>
       </c>
     </row>
     <row r="8">
@@ -1356,7 +1314,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bank Handlowy w Warszawie S.A. (WSE:BHW)</t>
+          <t>Bank Millennium S.A. (WSE:MIL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1365,13 +1323,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0444</v>
+        <v>0.106</v>
       </c>
       <c r="E8">
-        <v>-0.125</v>
-      </c>
-      <c r="F8">
-        <v>0.04</v>
+        <v>-0.246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1380,103 +1335,94 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.003632309640018818</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.002643360196044229</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>114.4</v>
+        <v>41.2</v>
       </c>
       <c r="L8">
-        <v>0.2358762886597938</v>
+        <v>0.04855055385340561</v>
       </c>
       <c r="M8">
-        <v>122</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.06839715198744183</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>1.066433566433566</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>122</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.06839715198744183</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>1.066433566433566</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>853.9</v>
+        <v>306.2</v>
       </c>
       <c r="V8">
-        <v>0.4787240006727588</v>
+        <v>0.2883239171374765</v>
       </c>
       <c r="W8">
-        <v>0.06157158234660926</v>
+        <v>0.01850437907028969</v>
       </c>
       <c r="X8">
-        <v>0.06207378371789027</v>
+        <v>0.05838773584313536</v>
       </c>
       <c r="Y8">
-        <v>-0.0005022013712810067</v>
+        <v>-0.03988335677284567</v>
       </c>
       <c r="Z8">
-        <v>0.1833913009940196</v>
+        <v>0.3121229954391643</v>
       </c>
       <c r="AA8">
-        <v>-0.0004847692653483578</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04577855743252179</v>
+        <v>0.04231599369441765</v>
       </c>
       <c r="AC8">
-        <v>-0.04626332669787015</v>
+        <v>-0.04231599369441765</v>
       </c>
       <c r="AD8">
-        <v>1677.4</v>
+        <v>1112.1</v>
       </c>
       <c r="AE8">
-        <v>13.11835087704564</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1690.518350877046</v>
+        <v>1112.1</v>
       </c>
       <c r="AG8">
-        <v>836.6183508770458</v>
+        <v>805.8999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.4865895519924027</v>
+        <v>0.5115220091072168</v>
       </c>
       <c r="AI8">
-        <v>0.4941420253536861</v>
+        <v>0.3176158108185297</v>
       </c>
       <c r="AJ8">
-        <v>0.3192811860425362</v>
+        <v>0.431447079608116</v>
       </c>
       <c r="AK8">
-        <v>0.3258851552659047</v>
+        <v>0.252222083124687</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>1945.939675174014</v>
-      </c>
-      <c r="AP8">
-        <v>970.5549314118862</v>
       </c>
     </row>
     <row r="9">
@@ -1496,10 +1442,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.239</v>
+        <v>0.226</v>
       </c>
       <c r="E9">
-        <v>0.213</v>
+        <v>1.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1508,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005947335201058577</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004441343318213492</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>133.3</v>
+        <v>178</v>
       </c>
       <c r="L9">
-        <v>0.1436732054322052</v>
+        <v>0.1664951828640913</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1541,67 +1487,61 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>641.7</v>
+        <v>821.2</v>
       </c>
       <c r="V9">
-        <v>0.2429025664319782</v>
+        <v>0.3271582805465918</v>
       </c>
       <c r="W9">
-        <v>0.0668505516549649</v>
+        <v>0.06456761462565293</v>
       </c>
       <c r="X9">
-        <v>0.06262869721568927</v>
+        <v>0.06058684938853956</v>
       </c>
       <c r="Y9">
-        <v>0.004221854439275627</v>
+        <v>0.003980765237113368</v>
       </c>
       <c r="Z9">
-        <v>0.1888147773498278</v>
+        <v>0.2358170107640727</v>
       </c>
       <c r="AA9">
-        <v>0.0008385912497626257</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04821410628582588</v>
+        <v>0.04260921579982167</v>
       </c>
       <c r="AC9">
-        <v>-0.04737551503606326</v>
+        <v>-0.04260921579982167</v>
       </c>
       <c r="AD9">
-        <v>2418.5</v>
+        <v>2885.1</v>
       </c>
       <c r="AE9">
-        <v>159.9103120022893</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>2578.410312002289</v>
+        <v>2885.1</v>
       </c>
       <c r="AG9">
-        <v>1936.710312002289</v>
+        <v>2063.9</v>
       </c>
       <c r="AH9">
-        <v>0.4939284354260627</v>
+        <v>0.5347531138790036</v>
       </c>
       <c r="AI9">
-        <v>0.4832818504271145</v>
+        <v>0.4850864214136794</v>
       </c>
       <c r="AJ9">
-        <v>0.4230000982907736</v>
+        <v>0.4512243113248797</v>
       </c>
       <c r="AK9">
-        <v>0.4126357850007733</v>
+        <v>0.4026022159800249</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>64.49333333333334</v>
-      </c>
-      <c r="AP9">
-        <v>51.64560832006104</v>
       </c>
     </row>
     <row r="10">
@@ -1612,7 +1552,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bank Ochrony Srodowiska S.A. (WSE:BOS)</t>
+          <t>Santander Bank Polska S.A. (WSE:SPL)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1621,10 +1561,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.00523</v>
+        <v>0.014</v>
       </c>
       <c r="E10">
-        <v>-0.0213</v>
+        <v>-0.101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1633,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.02289501133201903</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.01740595631392409</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>18.1</v>
+        <v>379</v>
       </c>
       <c r="L10">
-        <v>0.1528716216216216</v>
+        <v>0.2012852514737904</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1666,67 +1606,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>20.6</v>
+        <v>595</v>
       </c>
       <c r="V10">
-        <v>0.1181870338496845</v>
+        <v>0.1171190677715883</v>
       </c>
       <c r="W10">
-        <v>0.03119613926232334</v>
+        <v>0.06089820840363139</v>
       </c>
       <c r="X10">
-        <v>0.09934231506399205</v>
+        <v>0.06241249451062147</v>
       </c>
       <c r="Y10">
-        <v>-0.06814617580166871</v>
+        <v>-0.00151428610699008</v>
       </c>
       <c r="Z10">
-        <v>0.1062985627203273</v>
+        <v>0.1607818357256915</v>
       </c>
       <c r="AA10">
-        <v>-0.001850228138942937</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04698861186898104</v>
+        <v>0.04283225804494856</v>
       </c>
       <c r="AC10">
-        <v>-0.04883884000792398</v>
+        <v>-0.04283225804494856</v>
       </c>
       <c r="AD10">
-        <v>477.6</v>
+        <v>6270.4</v>
       </c>
       <c r="AE10">
-        <v>18.24384670855526</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>495.8438467085553</v>
+        <v>6270.4</v>
       </c>
       <c r="AG10">
-        <v>475.2438467085553</v>
+        <v>5675.4</v>
       </c>
       <c r="AH10">
-        <v>0.7399065874347976</v>
+        <v>0.5524240795721849</v>
       </c>
       <c r="AI10">
-        <v>0.4748807822519849</v>
+        <v>0.4596056585794913</v>
       </c>
       <c r="AJ10">
-        <v>0.7316578382148743</v>
+        <v>0.5276644012012235</v>
       </c>
       <c r="AK10">
-        <v>0.4643121525636767</v>
+        <v>0.4349632127529123</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>509.1684434968018</v>
-      </c>
-      <c r="AP10">
-        <v>506.6565529941954</v>
       </c>
     </row>
     <row r="11">
@@ -1746,10 +1680,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0597</v>
+        <v>0.0532</v>
       </c>
       <c r="E11">
-        <v>-0.0198</v>
+        <v>-0.212</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1764,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>291.8</v>
+        <v>102.3</v>
       </c>
       <c r="L11">
-        <v>0.246016356125116</v>
+        <v>0.0850020772746157</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1791,55 +1725,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2109.9</v>
+        <v>1731.7</v>
       </c>
       <c r="V11">
-        <v>0.4853357256228004</v>
+        <v>0.8520049200492005</v>
       </c>
       <c r="W11">
-        <v>0.07261415951225582</v>
+        <v>0.02547881746407312</v>
       </c>
       <c r="X11">
-        <v>0.07190963947455069</v>
+        <v>0.1000130296079903</v>
       </c>
       <c r="Y11">
-        <v>0.0007045200377051308</v>
+        <v>-0.07453421214391717</v>
       </c>
       <c r="Z11">
-        <v>0.1160619640353711</v>
+        <v>0.1468583777609924</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04944259274795149</v>
+        <v>0.04567219348115171</v>
       </c>
       <c r="AC11">
-        <v>-0.04944259274795149</v>
+        <v>-0.04567219348115171</v>
       </c>
       <c r="AD11">
-        <v>6296.7</v>
+        <v>6061</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>6296.7</v>
+        <v>6061</v>
       </c>
       <c r="AG11">
-        <v>4186.799999999999</v>
+        <v>4329.3</v>
       </c>
       <c r="AH11">
-        <v>0.5915727170236753</v>
+        <v>0.7488725520479397</v>
       </c>
       <c r="AI11">
-        <v>0.6106009328665768</v>
+        <v>0.579578488372093</v>
       </c>
       <c r="AJ11">
-        <v>0.4905965479663936</v>
+        <v>0.6805149485994529</v>
       </c>
       <c r="AK11">
-        <v>0.5104359699600116</v>
+        <v>0.4961436642638581</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1865,7 +1799,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.215</v>
+        <v>-0.245</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1874,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.07581188320687025</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07581188320687025</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-158.4</v>
+        <v>-173.8</v>
       </c>
       <c r="L12">
-        <v>-1.609756097560975</v>
+        <v>-2.188916876574307</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1907,67 +1841,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>449.8</v>
+        <v>495.2</v>
       </c>
       <c r="V12">
-        <v>5.445520581113802</v>
+        <v>7.835443037974683</v>
       </c>
       <c r="W12">
-        <v>-0.1729824178224309</v>
+        <v>-0.2513013302486987</v>
       </c>
       <c r="X12">
-        <v>0.3004921567603671</v>
+        <v>0.3202295044920158</v>
       </c>
       <c r="Y12">
-        <v>-0.473474574582798</v>
+        <v>-0.5715308347407144</v>
       </c>
       <c r="Z12">
-        <v>0.05211310833458499</v>
+        <v>0.06136960890400372</v>
       </c>
       <c r="AA12">
-        <v>0.003950792882608534</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05526622059300466</v>
+        <v>0.04759382091784904</v>
       </c>
       <c r="AC12">
-        <v>-0.05131542771039613</v>
+        <v>-0.04759382091784904</v>
       </c>
       <c r="AD12">
-        <v>1052</v>
+        <v>835.4</v>
       </c>
       <c r="AE12">
-        <v>28.70055346221983</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1080.70055346222</v>
+        <v>835.4</v>
       </c>
       <c r="AG12">
-        <v>630.9005534622199</v>
+        <v>340.2</v>
       </c>
       <c r="AH12">
-        <v>0.9289951339280589</v>
+        <v>0.9296683730247051</v>
       </c>
       <c r="AI12">
-        <v>0.6097727337223094</v>
+        <v>0.601093682544251</v>
       </c>
       <c r="AJ12">
-        <v>0.8842327457222166</v>
+        <v>0.8433316807139316</v>
       </c>
       <c r="AK12">
-        <v>0.4770512585499972</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>79.6969696969697</v>
-      </c>
-      <c r="AP12">
-        <v>47.79549647441061</v>
       </c>
     </row>
     <row r="13">
@@ -1987,13 +1915,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.151</v>
-      </c>
-      <c r="E13">
-        <v>0.102</v>
-      </c>
-      <c r="F13">
-        <v>0.23</v>
+        <v>0.0484</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2002,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01583290823095716</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01040867115183295</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>113.6</v>
+        <v>-107.4</v>
       </c>
       <c r="L13">
-        <v>0.1747692307692308</v>
+        <v>-0.2249214659685864</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2020,7 +1942,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2029,73 +1951,67 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>304.8</v>
+        <v>376.4</v>
       </c>
       <c r="V13">
-        <v>0.3088771787596271</v>
+        <v>0.6346315966953295</v>
       </c>
       <c r="W13">
-        <v>0.06442831215970961</v>
+        <v>-0.06347892901471718</v>
       </c>
       <c r="X13">
-        <v>0.0778114902140196</v>
+        <v>0.0848565718701166</v>
       </c>
       <c r="Y13">
-        <v>-0.01338317805431</v>
+        <v>-0.1483355008848338</v>
       </c>
       <c r="Z13">
-        <v>0.2052906204908634</v>
+        <v>0.1587539065097413</v>
       </c>
       <c r="AA13">
-        <v>0.002136802559245136</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05422319683231908</v>
+        <v>0.05093453661097334</v>
       </c>
       <c r="AC13">
-        <v>-0.05208639427307394</v>
+        <v>-0.05093453661097334</v>
       </c>
       <c r="AD13">
-        <v>1620.7</v>
+        <v>1350.8</v>
       </c>
       <c r="AE13">
-        <v>105.0430482493892</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1725.743048249389</v>
+        <v>1350.8</v>
       </c>
       <c r="AG13">
-        <v>1420.943048249389</v>
+        <v>974.4</v>
       </c>
       <c r="AH13">
-        <v>0.6362085384647232</v>
+        <v>0.6948917125366531</v>
       </c>
       <c r="AI13">
-        <v>0.5049512262942036</v>
+        <v>0.4463978849966953</v>
       </c>
       <c r="AJ13">
-        <v>0.5901556020616577</v>
+        <v>0.6216267942583732</v>
       </c>
       <c r="AK13">
-        <v>0.4564775757160335</v>
+        <v>0.3677536231884058</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>51.77955271565495</v>
-      </c>
-      <c r="AP13">
-        <v>45.39754147761627</v>
       </c>
     </row>
     <row r="14">
@@ -2106,7 +2022,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Idea Bank S.A. (WSE:IDA)</t>
+          <t>Getin Holding S.A. (WSE:GTN)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2114,23 +2030,26 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D14">
+        <v>-0.117</v>
+      </c>
       <c r="G14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>-387.6</v>
+        <v>-37</v>
       </c>
       <c r="L14">
-        <v>1.73345259391771</v>
+        <v>-0.2765321375186846</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2154,173 +2073,60 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>166.2</v>
+        <v>503.8</v>
       </c>
       <c r="V14">
-        <v>3.350806451612903</v>
+        <v>12.02386634844869</v>
       </c>
       <c r="W14">
-        <v>-0.7915050030630999</v>
+        <v>-0.1614310645724258</v>
       </c>
       <c r="X14">
-        <v>0.09347994829780991</v>
+        <v>0.09408401964790927</v>
       </c>
       <c r="Y14">
-        <v>-0.8849849513609098</v>
+        <v>-0.2555150842203351</v>
       </c>
       <c r="Z14">
-        <v>-0.5237760599672054</v>
+        <v>0.3819583214387669</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.05258372633104012</v>
+        <v>0.05402199197305988</v>
       </c>
       <c r="AC14">
-        <v>-0.05258372633104012</v>
+        <v>-0.05402199197305988</v>
       </c>
       <c r="AD14">
-        <v>126.3</v>
+        <v>113.4</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>126.3</v>
+        <v>113.4</v>
       </c>
       <c r="AG14">
-        <v>-39.89999999999999</v>
+        <v>-390.4</v>
       </c>
       <c r="AH14">
-        <v>0.7180216031836271</v>
+        <v>0.7301996136509981</v>
       </c>
       <c r="AI14">
-        <v>0.7051926298157454</v>
+        <v>0.3291727140783745</v>
       </c>
       <c r="AJ14">
-        <v>-4.113402061855665</v>
+        <v>1.120229555236729</v>
       </c>
       <c r="AK14">
-        <v>-3.093023255813951</v>
+        <v>2.450721908349027</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Getin Holding S.A. (WSE:GTN)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>-0</v>
-      </c>
-      <c r="H15">
-        <v>-0</v>
-      </c>
-      <c r="I15">
-        <v>-0</v>
-      </c>
-      <c r="J15">
-        <v>-0</v>
-      </c>
-      <c r="K15">
-        <v>-185.4</v>
-      </c>
-      <c r="L15">
-        <v>2.901408450704225</v>
-      </c>
-      <c r="M15">
-        <v>-0</v>
-      </c>
-      <c r="N15">
-        <v>-0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>-0</v>
-      </c>
-      <c r="Q15">
-        <v>-0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>313.8</v>
-      </c>
-      <c r="V15">
-        <v>3.767106842737095</v>
-      </c>
-      <c r="W15">
-        <v>-0.3990529487731382</v>
-      </c>
-      <c r="X15">
-        <v>0.1457638207565701</v>
-      </c>
-      <c r="Y15">
-        <v>-0.5448167695297083</v>
-      </c>
-      <c r="Z15">
-        <v>-0.120566037735849</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0.0600325876842812</v>
-      </c>
-      <c r="AC15">
-        <v>-0.0600325876842812</v>
-      </c>
-      <c r="AD15">
-        <v>433.8</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>433.8</v>
-      </c>
-      <c r="AG15">
-        <v>120</v>
-      </c>
-      <c r="AH15">
-        <v>0.838909301875846</v>
-      </c>
-      <c r="AI15">
-        <v>0.6223816355810617</v>
-      </c>
-      <c r="AJ15">
-        <v>0.5902606984751598</v>
-      </c>
-      <c r="AK15">
-        <v>0.3131524008350731</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
         <v>0</v>
       </c>
     </row>
